--- a/data/trans_dic/P56$familiarvive-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$familiarvive-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población a la que, al menos, le ayudaun familiar conviviente cuando tiene dificultades en la actividades básicas</t>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades básicas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +725,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 64,61</t>
+          <t>14,56; 64,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,52 +735,52 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 43,29</t>
+          <t>8,91; 43,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 14,79</t>
+          <t>1,76; 15,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,59; 76,36</t>
+          <t>28,33; 79,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,08; 30,98</t>
+          <t>7,14; 30,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 26,05</t>
+          <t>3,03; 25,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,64; 28,11</t>
+          <t>14,72; 28,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>28,87; 63,42</t>
+          <t>29,01; 64,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 23,43</t>
+          <t>5,75; 23,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 27,07</t>
+          <t>7,43; 26,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,82; 22,77</t>
+          <t>11,81; 22,58</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,56</t>
+          <t>0,0; 31,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 34,38</t>
+          <t>6,33; 32,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 33,87</t>
+          <t>4,02; 30,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 25,24</t>
+          <t>3,28; 24,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,15; 62,56</t>
+          <t>23,21; 62,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,75; 40,35</t>
+          <t>16,74; 39,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,94; 57,5</t>
+          <t>23,69; 59,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,34; 29,1</t>
+          <t>14,34; 29,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 47,31</t>
+          <t>14,82; 45,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,92; 34,37</t>
+          <t>15,93; 33,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18,48; 43,23</t>
+          <t>19,05; 45,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 25,14</t>
+          <t>13,33; 24,84</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,55</t>
+          <t>0,0; 67,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 65,19</t>
+          <t>0,0; 65,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 50,36</t>
+          <t>8,99; 47,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,09; 46,11</t>
+          <t>10,53; 45,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,23; 68,84</t>
+          <t>20,39; 70,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>24,55; 54,78</t>
+          <t>24,33; 56,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,74; 61,21</t>
+          <t>23,5; 59,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,46; 37,25</t>
+          <t>15,81; 37,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,9; 61,76</t>
+          <t>22,18; 61,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,62; 47,91</t>
+          <t>22,97; 50,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,5; 51,16</t>
+          <t>22,48; 52,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 35,36</t>
+          <t>17,21; 34,72</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,63</t>
+          <t>0,0; 37,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 60,03</t>
+          <t>14,23; 59,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,27</t>
+          <t>0,0; 20,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 22,66</t>
+          <t>5,35; 23,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 49,58</t>
+          <t>17,22; 50,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,26; 43,23</t>
+          <t>18,51; 44,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,59; 34,22</t>
+          <t>9,15; 33,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 27,53</t>
+          <t>14,28; 28,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,63; 39,59</t>
+          <t>14,09; 40,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,55; 42,84</t>
+          <t>20,7; 42,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 27,81</t>
+          <t>7,71; 29,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,09; 23,69</t>
+          <t>12,81; 23,63</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,48; 31,14</t>
+          <t>9,93; 31,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,89; 31,0</t>
+          <t>12,0; 32,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 25,96</t>
+          <t>10,08; 27,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 19,58</t>
+          <t>8,79; 19,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,27; 51,76</t>
+          <t>30,8; 51,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,16; 35,12</t>
+          <t>21,88; 34,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,62; 34,6</t>
+          <t>19,26; 34,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,2; 25,57</t>
+          <t>18,19; 25,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,23; 41,11</t>
+          <t>25,87; 41,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,94; 31,68</t>
+          <t>20,36; 31,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,57; 29,98</t>
+          <t>18,0; 29,82</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,21; 22,24</t>
+          <t>16,2; 22,32</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda un familiar conviviente cuando tiene dificultades en la actividades básicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8911</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7622</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4641</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12955</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13643</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7622</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8982</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14391</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1906; 8503</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1808</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1690; 8340</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>441; 3964</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4643; 12999</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3290; 14002</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1206; 10267</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9101; 17459</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8552; 18988</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3261; 13519</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4369; 15835</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10267; 19630</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5320</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2837</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11332</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18180</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16087</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14315</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12360</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>23500</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18587</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17152</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4654</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2052; 10563</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>784; 6008</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>800; 6008</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6352; 17187</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10994; 26257</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9727; 24369</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9598; 19914</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6276; 19079</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>15616; 33092</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11537; 27286</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12173; 22685</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1920</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3330</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4384</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5285</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8015</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16432</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14500</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10661</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9935</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>19762</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18884</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15946</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4671</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9215</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1580; 8430</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2138; 9293</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3597; 12367</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10268; 23886</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8235; 20919</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6677; 15650</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5457; 15033</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12900; 28566</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11830; 27861</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10758; 21708</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1661</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7314</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10130</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15417</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10827</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16297</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>11791</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22731</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>11568</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>20008</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4981</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3066; 12899</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3324</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1726; 7646</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5535; 16081</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9492; 22949</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5110; 18600</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>11433; 22672</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6398; 18550</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>15072; 31227</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5543; 21088</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14383; 26540</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9341</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15965</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>11967</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>13269</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>38389</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>57651</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>46055</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>54228</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>47729</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>73616</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>58021</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>67497</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4792; 15366</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>9419; 25791</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7267; 19490</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8975; 19445</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>28816; 48252</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>44914; 71179</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>33081; 58651</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>45665; 64538</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>36686; 59390</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>57759; 89642</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>43897; 72721</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>57186; 78795</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>